--- a/raw_ts_data/fd/fd3_ts2.xlsx
+++ b/raw_ts_data/fd/fd3_ts2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmaboudreau/Documents/GitHub/igea22/raw_ts_data/fd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61259F5E-AE70-9348-9B52-26A932D49EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BD9E93-33E3-624F-9DE9-6FAC3EEE030A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{FCB04415-4EB7-410A-AF7E-C3B200980728}"/>
   </bookViews>
@@ -201,13 +201,13 @@
     <t>Location</t>
   </si>
   <si>
-    <t>X Section</t>
-  </si>
-  <si>
     <t>Reach</t>
   </si>
   <si>
     <t>PointID</t>
+  </si>
+  <si>
+    <t>XSection</t>
   </si>
 </sst>
 </file>
@@ -713,7 +713,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -729,13 +729,13 @@
     <row r="1" spans="1:8" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23"/>
       <c r="B1" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="24" t="s">
         <v>56</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>57</v>
       </c>
       <c r="E1" s="24" t="s">
         <v>54</v>

--- a/raw_ts_data/fd/fd3_ts2.xlsx
+++ b/raw_ts_data/fd/fd3_ts2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncw02\Downloads\IGEA\raw_ts_data\fd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96365541-869A-4F5C-B72A-0AAF20D795E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313D5AC9-681F-493C-A70A-14C6048D9B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D04690A4-5BE0-4F6C-971C-FA10080ACC9C}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Total Station 2 (Grizz)" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Total Station 2 (Grizz)'!$A$1:$H$954</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Total Station 2 (Grizz)'!$A$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -756,8 +756,8 @@
   <dimension ref="A1:H954"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <pane ySplit="1" topLeftCell="A507" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I518" sqref="I518"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1918,7 +1918,9 @@
       <c r="E76" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F76" s="11"/>
+      <c r="F76" s="11">
+        <v>5</v>
+      </c>
       <c r="G76" s="13" t="s">
         <v>57</v>
       </c>
@@ -9483,7 +9485,9 @@
       <c r="E570" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F570" s="11"/>
+      <c r="F570" s="11">
+        <v>5</v>
+      </c>
       <c r="G570" s="13" t="s">
         <v>36</v>
       </c>
@@ -9780,6 +9784,9 @@
       <c r="E589" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F589" s="1">
+        <v>5</v>
+      </c>
       <c r="G589" t="s">
         <v>26</v>
       </c>
@@ -9797,6 +9804,9 @@
       </c>
       <c r="E590" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="F590" s="1">
+        <v>5</v>
       </c>
       <c r="G590" t="s">
         <v>26</v>
@@ -15316,7 +15326,6 @@
       <c r="F954" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H954" xr:uid="{E49DFB42-79D4-451E-8231-D8F17A7C2B1D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
